--- a/jpcore-r4/feature/swg1-ライセンス・免責事項/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/feature/swg1-ライセンス・免責事項/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -249,7 +249,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>点数表コード１桁（医科1、歯科３）</t>
+    <t>点数表コード１桁（医科1、歯科３）【詳細参照】</t>
   </si>
   <si>
     <t>点数表コード１桁（医科1、歯科３）。Identifier型の拡張
